--- a/Daily_Task_Tracker_.xlsx
+++ b/Daily_Task_Tracker_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rahamatha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rahamatha\git_hub_repository\Daily_status_updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB5F1FE-8A76-4557-922E-356BC3F01BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A9FABC-4962-465B-AD9D-670E066E5533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
   <si>
     <t>S.No</t>
   </si>
@@ -137,6 +137,62 @@
   </si>
   <si>
     <t>in_progress</t>
+  </si>
+  <si>
+    <t>pizza_project</t>
+  </si>
+  <si>
+    <t>communicating</t>
+  </si>
+  <si>
+    <t>adf to snowflake --etl process in youtube</t>
+  </si>
+  <si>
+    <t>Types of existing environments for restaurants</t>
+  </si>
+  <si>
+    <t>check in google and restarunt pics. list down it</t>
+  </si>
+  <si>
+    <t>preparea excel</t>
+  </si>
+  <si>
+    <t>existing task understanding and pizza_Project</t>
+  </si>
+  <si>
+    <t>what is pos system?
+ How does it work?
+ what is use cases of pos ?
+ what are  popular pos which pizza business are using?
+what are the top most restaurant using pos,
+how much time it wil take to deveop a pos
+what is process for pos building app?
+ steps for pos app building
+ own developed pos app is better or rent pos using is better?</t>
+  </si>
+  <si>
+    <t>answering</t>
+  </si>
+  <si>
+    <t>tagging the columns by description for SFSc main_columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagging the columns </t>
+  </si>
+  <si>
+    <t>tagging the columns and description and also the catogory</t>
+  </si>
+  <si>
+    <t>tagging the columns and description and also the catogory                                                                                                                                                                                                                                                                                                                                                                                         query_Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagging the columns and description and also the catogory  </t>
+  </si>
+  <si>
+    <t>project_video understanding</t>
+  </si>
+  <si>
+    <t>snowflake_practice</t>
   </si>
 </sst>
 </file>
@@ -201,12 +257,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,14 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="53.21875" customWidth="1"/>
     <col min="5" max="5" width="25.109375" customWidth="1"/>
@@ -966,6 +1026,620 @@
         <v>18</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45866</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45866</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45866</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45866</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45868</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45868</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45868</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45868</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>45874</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>45874</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>45874</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>45874</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>45875</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>45875</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>45875</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>45875</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>45876</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>45876</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>45876</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>45876</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>45877</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>45877</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>45877</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>45877</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>45879</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>45879</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>45879</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>45879</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>45881</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>45881</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>45881</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>45881</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>45882</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>45882</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>45882</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>45882</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>45883</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>45883</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>45883</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>45883</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
